--- a/public/designer_cat_count.xlsx
+++ b/public/designer_cat_count.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\landb\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\landb\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A350CB77-0AFA-4E51-BA33-BDC86CBA8E88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,8 +39,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,16 +51,25 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,24 +88,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -372,20 +400,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,128 +425,128 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>97</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>40</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>59</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>60</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>17</v>
       </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>131</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>54</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>122</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>127</v>
       </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>21</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>16</v>
       </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>21</v>
       </c>
@@ -528,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>21</v>
       </c>
@@ -539,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>21</v>
       </c>
@@ -550,18 +579,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>16</v>
       </c>
       <c r="C16" s="3">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9</v>
       </c>
@@ -572,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
@@ -583,7 +612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9</v>
       </c>
@@ -594,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -605,7 +634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
@@ -616,7 +645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
@@ -627,7 +656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>9</v>
       </c>
@@ -638,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9</v>
       </c>
@@ -649,7 +678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9</v>
       </c>
@@ -660,7 +689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -671,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>9</v>
       </c>
@@ -682,201 +711,333 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>60</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>2</v>
-      </c>
-      <c r="B29" s="4">
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>2</v>
-      </c>
-      <c r="B30" s="4">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2">
         <v>59</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>2</v>
-      </c>
-      <c r="B31" s="4">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
         <v>17</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>2</v>
-      </c>
-      <c r="B32" s="4">
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2">
         <v>40</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>2</v>
-      </c>
-      <c r="B33" s="4">
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
         <v>131</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>2</v>
-      </c>
-      <c r="B34" s="4">
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2">
         <v>122</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2">
         <v>97</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>2</v>
-      </c>
-      <c r="B36" s="4">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2">
         <v>127</v>
       </c>
-      <c r="C36" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>2</v>
-      </c>
-      <c r="B37" s="4">
+      <c r="C36" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2">
         <v>94</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>2</v>
-      </c>
-      <c r="B38" s="4">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2">
         <v>56</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>2</v>
-      </c>
-      <c r="B39" s="4">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
         <v>52</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>2</v>
-      </c>
-      <c r="B40" s="4">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
         <v>54</v>
       </c>
-      <c r="C40" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>2</v>
-      </c>
-      <c r="B41" s="4">
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2">
         <v>53</v>
       </c>
-      <c r="C41" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="2">
         <v>16</v>
       </c>
-      <c r="C42" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="C42" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>12</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="2">
         <v>59</v>
       </c>
-      <c r="C43" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>12</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="2">
         <v>56</v>
       </c>
-      <c r="C44" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>12</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="2">
         <v>52</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" s="4">
+        <v>16</v>
+      </c>
+      <c r="C46" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4">
+        <v>94</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>10</v>
+      </c>
+      <c r="B48" s="4">
+        <v>56</v>
+      </c>
+      <c r="C48" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>10</v>
+      </c>
+      <c r="B49" s="4">
+        <v>40</v>
+      </c>
+      <c r="C49" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>10</v>
+      </c>
+      <c r="B50" s="4">
+        <v>131</v>
+      </c>
+      <c r="C50" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>10</v>
+      </c>
+      <c r="B51" s="4">
+        <v>127</v>
+      </c>
+      <c r="C51" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>10</v>
+      </c>
+      <c r="B52" s="4">
+        <v>60</v>
+      </c>
+      <c r="C52" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>10</v>
+      </c>
+      <c r="B53" s="4">
+        <v>97</v>
+      </c>
+      <c r="C53" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>10</v>
+      </c>
+      <c r="B54" s="4">
+        <v>122</v>
+      </c>
+      <c r="C54" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>10</v>
+      </c>
+      <c r="B55" s="4">
+        <v>59</v>
+      </c>
+      <c r="C55" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>10</v>
+      </c>
+      <c r="B56" s="4">
+        <v>17</v>
+      </c>
+      <c r="C56" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>10</v>
+      </c>
+      <c r="B57" s="4">
+        <v>54</v>
+      </c>
+      <c r="C57" s="4">
         <v>1</v>
       </c>
     </row>

--- a/public/designer_cat_count.xlsx
+++ b/public/designer_cat_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\landb\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A350CB77-0AFA-4E51-BA33-BDC86CBA8E88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F4DBC3-7971-4BDE-8E50-FC9CA679FBD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +433,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
